--- a/melhores_simulacoes_por_grupo.xlsx
+++ b/melhores_simulacoes_por_grupo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,32 +488,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Sim649</t>
+          <t>Sim1075</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.306062258191881</v>
+        <v>0.3006734290992289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5701804434158274</v>
+        <v>0.58292896432435</v>
       </c>
       <c r="D2" t="n">
-        <v>1.303092718802385</v>
+        <v>1.267896532438475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.172900900030385</v>
+        <v>0.1751302074844107</v>
       </c>
       <c r="F2" t="n">
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5755360404382133</v>
+        <v>0.5560461652986775</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3172034996889891</v>
+        <v>0.3157768328069016</v>
       </c>
       <c r="I2" t="n">
-        <v>649</v>
+        <v>1075</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -522,35 +522,307 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Sim1349</t>
+          <t>Sim1204</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2960640315322916</v>
+        <v>0.2985497069696164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5852794890930171</v>
+        <v>0.584776669438677</v>
       </c>
       <c r="D3" t="n">
-        <v>1.259079443579149</v>
+        <v>1.254738538290423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1734832328892336</v>
+        <v>0.1727478296821343</v>
       </c>
       <c r="F3" t="n">
         <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5726100277674231</v>
+        <v>0.5663259502519715</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3154950351858114</v>
+        <v>0.3155533920509729</v>
       </c>
       <c r="I3" t="n">
-        <v>1349</v>
+        <v>1204</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Sim704</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3005399745394138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5581408540722783</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.345422791451855</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1738161664506905</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5814041206083583</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3175014548055202</v>
+      </c>
+      <c r="I4" t="n">
+        <v>704</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Sim1011</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3008898687513784</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5702308440087571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.261419139477606</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2052445893592086</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.738714727923353</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5521952929492459</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3239736628893836</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Sim923</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2606602725333121</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5683135647166521</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.389797900317617</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1697896463238944</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.623413721562333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3180812742270498</v>
+      </c>
+      <c r="I6" t="n">
+        <v>923</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Sim907</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3040927454802127</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5718123791045897</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.287269413116335</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1688916493328423</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6165486924779577</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3176709291587352</v>
+      </c>
+      <c r="I7" t="n">
+        <v>907</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sim1151</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2979198054933198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5797955092780827</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.261104915350266</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1791643290757748</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.837503023160011</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5611535428112294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3165482009688032</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1151</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Sim825</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2994360402909881</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5844873585156264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.27951338838476</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1667118230125813</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5617927226211721</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3167855605387069</v>
+      </c>
+      <c r="I9" t="n">
+        <v>825</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Sim558</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2958124053434836</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5439956748244762</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.340964150851298</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2034532726774491</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.849537200924361</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4982611713558393</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3294320408519446</v>
+      </c>
+      <c r="I10" t="n">
+        <v>558</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Sim1349</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2960640315322916</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5852794890930171</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.259079443579149</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1734832328892336</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5726100277674231</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3154950351858114</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1349</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
